--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-29.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="435">
   <si>
     <t>League</t>
   </si>
@@ -1319,15 +1319,6 @@
   </si>
   <si>
     <t>Atletico San Luis</t>
-  </si>
-  <si>
-    <t>33119262</t>
-  </si>
-  <si>
-    <t>1.226336041</t>
-  </si>
-  <si>
-    <t>1.226336086</t>
   </si>
 </sst>
 </file>
@@ -29443,8 +29434,8 @@
       <c r="BE141">
         <v>0</v>
       </c>
-      <c r="BF141" t="s">
-        <v>435</v>
+      <c r="BF141">
+        <v>33119262</v>
       </c>
       <c r="BG141">
         <v>5129865</v>
@@ -29455,11 +29446,11 @@
       <c r="BI141">
         <v>58805</v>
       </c>
-      <c r="BJ141" t="s">
-        <v>436</v>
-      </c>
-      <c r="BK141" t="s">
-        <v>437</v>
+      <c r="BJ141">
+        <v>1.226336041</v>
+      </c>
+      <c r="BK141">
+        <v>1.226336086</v>
       </c>
       <c r="BL141">
         <v>0</v>
